--- a/test_cases_seleniumeasy.xlsx
+++ b/test_cases_seleniumeasy.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Simple Form Demo" sheetId="1" r:id="rId1"/>
+    <sheet name="Check Box Demo" sheetId="2" r:id="rId1"/>
+    <sheet name="Simple Form Demo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="160">
   <si>
     <t>Project Name:</t>
   </si>
@@ -314,6 +315,186 @@
   </si>
   <si>
     <t>Simple Form Demo</t>
+  </si>
+  <si>
+    <t>test_checkbox_demo.py</t>
+  </si>
+  <si>
+    <t>Check Box Demo</t>
+  </si>
+  <si>
+    <t>TC_CB_001</t>
+  </si>
+  <si>
+    <t>TC_SF_013</t>
+  </si>
+  <si>
+    <t>Test posibility to navigate to Simple Form Demo website</t>
+  </si>
+  <si>
+    <t>Redirected to task choice tabel</t>
+  </si>
+  <si>
+    <t>User is able to choose task</t>
+  </si>
+  <si>
+    <t>Navigate to task choice tabel website</t>
+  </si>
+  <si>
+    <t>1. Click "Simple Form Demo" list item</t>
+  </si>
+  <si>
+    <t>Navigate to Check Box Demo</t>
+  </si>
+  <si>
+    <t>1. Click "Check Box Demo" list item</t>
+  </si>
+  <si>
+    <t>Redirected to Check Box Demo website</t>
+  </si>
+  <si>
+    <t>Forms are available to check and uncheck</t>
+  </si>
+  <si>
+    <t>TC_CB_002</t>
+  </si>
+  <si>
+    <t>Check if success message is not displayed when box is not checked</t>
+  </si>
+  <si>
+    <t>1. Check if message is not displayed</t>
+  </si>
+  <si>
+    <t>No success message displayed</t>
+  </si>
+  <si>
+    <t>TC_CB_003</t>
+  </si>
+  <si>
+    <t>TC_CB_004</t>
+  </si>
+  <si>
+    <t>TC_CB_005</t>
+  </si>
+  <si>
+    <t>Check if success message is displayed when box is checked</t>
+  </si>
+  <si>
+    <t>Navigate to Checkbox demo website</t>
+  </si>
+  <si>
+    <t>1. Click on Checkbox</t>
+  </si>
+  <si>
+    <t>Success message displayed</t>
+  </si>
+  <si>
+    <t>Click on "Start Practising button"</t>
+  </si>
+  <si>
+    <t>2. Click on Checkbox again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if button starting label is correct </t>
+  </si>
+  <si>
+    <t>1. Check button starting label is "Check All"</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if checking all boxes one by one change button label </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Check all boxes one by one </t>
+  </si>
+  <si>
+    <t>Button label changes to "Uncheck All"</t>
+  </si>
+  <si>
+    <t>TC_CB_006</t>
+  </si>
+  <si>
+    <t>TC_CB_007</t>
+  </si>
+  <si>
+    <t>1. Click on "Check All" button</t>
+  </si>
+  <si>
+    <t>TC_CB_008</t>
+  </si>
+  <si>
+    <t>TC_CB_009</t>
+  </si>
+  <si>
+    <t>Check if "Uncheck All" button unchecks all boxes</t>
+  </si>
+  <si>
+    <t>Check if "Check All" button checks all boxes</t>
+  </si>
+  <si>
+    <t>1. Click on "Uncheck All" button</t>
+  </si>
+  <si>
+    <t>All 4 boxes are checked and button label changes to "Uncheck All"</t>
+  </si>
+  <si>
+    <t>All 4 boxes are unchecked and button label changes to "Check All"</t>
+  </si>
+  <si>
+    <t>1. Check only one box</t>
+  </si>
+  <si>
+    <t>2. Check two boxes</t>
+  </si>
+  <si>
+    <t>3. Check three boxes</t>
+  </si>
+  <si>
+    <t>Button label stays the same</t>
+  </si>
+  <si>
+    <t>Button label doesn't change</t>
+  </si>
+  <si>
+    <t>TC_CB_010</t>
+  </si>
+  <si>
+    <t>Check if all checkboxes on website can be checked and displays correctly</t>
+  </si>
+  <si>
+    <t>1. Click on checkbox in "Single Checkbox Demo"</t>
+  </si>
+  <si>
+    <t>2. Click on all checkboxes in "Multiple Checkbox Demo"</t>
+  </si>
+  <si>
+    <t>Success message is displayed by Single Checkbox form and Button label changes to "Uncheck All" In Multiple Checkboxes form.</t>
+  </si>
+  <si>
+    <t>Success message is displayed by Single Checkbox form but Button label DOESN'T change to "Uncheck All" In Multiple Checkboxes form.</t>
+  </si>
+  <si>
+    <t>Test possibility to navigate to Check Box Demo website</t>
+  </si>
+  <si>
+    <t>Verify Single Checkbox Demo</t>
+  </si>
+  <si>
+    <t>Verify Multiple Checkbox Demo</t>
+  </si>
+  <si>
+    <t>Verify Single and Multiple Checkbox Demo</t>
+  </si>
+  <si>
+    <t>Navigate to task choice table website</t>
+  </si>
+  <si>
+    <t>Check if success message disappears after unchecking box</t>
+  </si>
+  <si>
+    <t>Check if  button label changes when all boxes are not checked</t>
   </si>
 </sst>
 </file>
@@ -363,7 +544,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -386,33 +567,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -425,17 +617,80 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -749,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,615 +1025,1173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="D10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I10" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J10" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="H11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
+    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="5" t="s">
+      <c r="H12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J12" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="H13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J13" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="14" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="5" t="s">
+      <c r="H14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J14" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J15" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="11" t="s">
+      <c r="H16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J16" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="5" t="s">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="G17" s="26"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="14" t="s">
+      <c r="H18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J18" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="2" t="s">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F20" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="11" t="s">
+      <c r="H20" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J20" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="5" t="s">
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F21" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="14" t="s">
+      <c r="H22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J22" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="2" t="s">
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="G23" s="13"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D24" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G24" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="11" t="s">
+      <c r="H24" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J24" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="5" t="s">
+    <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="G25" s="26"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="24"/>
+    </row>
+    <row r="26" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="14" t="s">
+      <c r="H26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J26" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="2" t="s">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
